--- a/Track Layout.xlsx
+++ b/Track Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujlele/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\School\1140\1140_iteration4\1140\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9472A-FC0B-BC4A-9A4E-40824B3BC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3CF62F-1D4E-4407-A61F-CD413E6BD43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="3120" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="90">
   <si>
     <t>Block Number</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>Red</t>
   </si>
   <si>
     <t>D</t>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>UNDERGROUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>ELEVATION (M)</t>
@@ -460,14 +454,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,8 +567,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37440" y="4225690"/>
-          <a:ext cx="7634190" cy="2687320"/>
+          <a:off x="37440" y="4080910"/>
+          <a:ext cx="6862030" cy="2580640"/>
           <a:chOff x="37440" y="4060590"/>
           <a:chExt cx="6967440" cy="2598420"/>
         </a:xfrm>
@@ -1226,16 +1220,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1701 3366,'311'0,"-297"1,0 0,27 7,-25-5,-2 0,22 0,462-1,-243-4,-42 2,-197 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3498 3385,'1452'0,"-1437"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">5489 3366,'1315'0,"-1298"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">7324 3348,'1252'0,"-1237"1,-3 0,29 6,15 2,-40-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3348,'618'0,"-600"1,-1 0,26 6,-24-3,-2-2,24 2,14-5,-27 0,0 1,0 1,-1 2,29 6,-27-5,3 0,-2-2,0-1,41-3,0 0,6 2,-60 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">9316 3184,'6'-1,"0"0,1 0,-2-1,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,1-1,5-6,-5 5,2 0,-1 1,0 0,0 0,2 0,5-3,25-5,-2-2,67-33,-18 5,44-7,84-35,-193 77,41-11,-41 14,0-2,27-11,-21 6,1 1,0 0,50-9,-62 15,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">10688 2655,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,2-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,3-1,33-16,-33 15,52-20,58-17,-95 32,115-43,-85 30,0 3,56-14,-57 20,-1-2,0-3,55-27,-88 37,1 2,-1 1,28-5,28-9,160-81,-81 32,-136 62</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">12330 2016,'2'-1,"-2"-1,0 1,0 0,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,2-1,25-15,-13 9,30-19,77-34,-71 38,60-39,-78 43,3 1,52-20,-49 22,-2 0,37-23,-43 22,53-21,10-6,-36 9,-48 30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">13606 1342,'13'-1,"1"-2,-2 1,2-1,-1 0,-1-1,1 0,-2-1,15-8,-7 4,0 2,30-9,-16 5,1 0,-1-3,51-27,40-17,-59 30,76-44,3-4,-130 69,-2 0,0-1,16-11,-1-1,-22 16,1 1,2 0,-2 0,0 1,1 0,14-4,-15 5,1-1,1 1,-2-2,1 1,-1-1,1 1,10-7,29-21,-36 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">15075 648,'5'-1,"-2"0,1 0,-1 0,0 0,-1-1,2 1,-1-1,0 0,-1 1,2-1,-2-2,0 2,5-4,3-3,7-3,0 2,1 0,-2 1,34-12,-30 14,0-3,-1 1,32-21,-28 16,1-1,51-21,-16 7,67-45,30-5,-99 52,-40 20,-1 0,1-2,-3 1,2-1,-2-2,21-16,-26 20,0 0,1 1,-2 1,3-1,-2 0,18-4,24-14,-40 17,5-1,-1-2,0 1,21-20,-28 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1529 3232,'279'0,"-266"1,0 0,24 7,-23-5,-2 0,21 0,414-1,-217-4,-39 2,-176 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3144 3251,'1305'0,"-1291"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">4934 3232,'1182'0,"-1167"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6583 3215,'1126'0,"-1113"1,-2 0,26 6,13 1,-36-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3215,'555'0,"-538"1,-2 0,24 6,-22-3,-2-2,22 1,12-4,-24 0,1 1,-1 1,-1 2,26 6,-24-5,3 0,-2-2,0-1,37-3,0 0,5 2,-54 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8374 3058,'5'-1,"1"0,0 0,-2-1,2 0,-2 0,2 0,-1-1,-1 1,2-1,-2 1,2-2,4-6,-5 5,2 0,0 2,-1-1,0 0,2 0,5-3,22-4,-2-3,61-31,-17 5,40-7,75-34,-173 75,37-12,-37 14,-1-1,26-12,-20 7,1 0,0 1,45-10,-55 15,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">9607 2550,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,3-1,29-16,-29 16,46-21,52-15,-85 30,104-41,-77 29,0 3,50-14,-50 20,-2-3,0-2,50-26,-80 35,2 2,-2 1,26-4,25-10,144-77,-73 31,-123 59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11083 1936,'2'-1,"-2"-1,0 1,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,0 0,1-1,23-14,-11 8,26-18,70-33,-64 37,54-37,-71 40,4 2,46-19,-44 20,-2 1,34-23,-40 22,49-20,8-7,-31 10,-44 28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12230 1289,'12'-1,"0"-2,-1 1,1-1,0 0,-1-1,1 1,-2-2,13-8,-6 5,0 1,27-8,-14 4,0 0,0-2,45-26,37-17,-54 29,69-42,3-4,-118 66,-1 0,0 0,14-11,-1-2,-19 16,0 2,2-1,-1 0,-1 1,1 0,13-4,-13 5,0-1,1 1,-2-1,2 0,-2-1,1 1,10-7,25-20,-32 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">13550 622,'5'-1,"-3"0,2 0,-1 0,-1 1,0-2,2 1,-1-1,-1 0,0 1,2-1,-3-2,1 2,4-4,3-2,7-4,-1 3,1-1,-1 1,30-11,-27 13,-1-2,1 0,27-20,-24 16,1-1,45-21,-14 7,60-43,28-5,-90 50,-36 20,-1-1,2-2,-4 2,3-2,-3-2,20-15,-24 20,0-1,1 1,-2 1,3 0,-2-1,16-4,22-13,-36 16,4 0,0-3,-1 2,20-20,-26 21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1262,11 +1256,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"0"0,1 1,-1 0,-1 0,1 0,0 0,0 2,-1-2,0 1,7 7,1-2,342 225,-248-175,23 13,-93-48,84 49,-12-9,-51-30,76 35,-98-51,38 24,20 10,-30-27,-43-17,1 1,31 18,-28-9,-13-10,-1-1,2 0,-2 0,2 0,-1-2,15 5,-23-9,-1 1,0 0,0-1,0 1,1 0,-1 1,0-1,1 0,1 2,4 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1972 1041,'10'1,"0"1,0 1,0-1,0 1,-1 1,0 0,1 1,-1 0,10 5,11 7,245 100,-239-103,0 1,500 178,-519-188,68 18,100 41,-147-41,-33-18,5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3866 1770,'10'2,"2"-1,-2 1,1 0,-1 0,15 6,14 3,114 26,166 41,347 76,-549-124,31 5,-124-31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5972 2281,'7'1,"1"0,-1 0,0 1,-1-1,2 2,-1-1,-1 2,8 2,14 6,38 8,0-4,82 12,-75-15,33 5,7 2,168 48,-7 3,-256-67,6 2,-1 1,0 1,26 14,-22-10,13 3,0-2,63 12,9 3,-94-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">8059 2846,'48'-1,"-1"3,1 2,0 1,53 13,427 92,-197-40,-254-47,1 3,82 39,-13 3,-123-57,1 0,0-2,52 11,9 4,-73-20,1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'4'1,"1"0,0 1,0 0,-2 0,2 0,-1 0,1 1,-1-1,-1 1,7 7,1-3,307 217,-223-168,21 12,-83-46,74 47,-9-8,-47-30,68 35,-87-50,33 23,19 10,-27-25,-39-18,0 2,29 17,-25-9,-12-9,-1-1,1-1,-1 1,2 0,-1-2,13 4,-20-8,-1 1,0 0,0-1,-1 1,2 0,-1 1,0-1,0 0,2 2,3 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1773 1000,'9'1,"0"1,0 0,-1 0,1 1,0 1,-1 0,1 1,-1 0,9 4,10 7,220 97,-215-100,1 2,448 170,-465-180,60 17,90 39,-131-39,-31-17,5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3475 1700,'9'2,"2"-1,-2 1,1-1,-1 1,13 6,13 3,103 24,148 40,313 73,-494-119,28 4,-111-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5368 2190,'6'1,"1"0,0 0,-1 1,-1-1,3 2,-2-1,-1 2,8 2,12 5,34 8,1-3,73 11,-68-15,31 5,5 3,152 45,-7 3,-230-64,6 2,-2 0,1 2,23 13,-20-9,12 2,0-1,57 11,8 3,-85-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7244 2733,'43'-1,"-1"3,1 2,1 1,46 12,385 89,-178-39,-227-45,0 3,74 37,-12 4,-111-56,2 1,-1-3,47 12,9 3,-67-20,2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1293,7 +1287,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1663 1097,'2'-133,"-4"-144,0 266,0 0,-1-2,0 2,0-1,-3 2,1-1,1 0,-11-11,-15-42,21 46,-1 0,0 2,0-2,-3 3,1-1,-24-22,5 4,13 15,0 1,-1 1,-42-28,-71-35,120 74,-29-16,-3 3,0 0,-1 4,0 0,-1 3,-96-15,95 20,12 0,-1 2,1 2,-64 1,89 5,0-1,1 1,-1 1,0 1,1-1,0 0,1 1,-2 0,-13 14,12-9,0 0,0 2,1 0,-13 19,-10 13,23-32,1 0,-1 2,3 0,0 0,-1 0,-6 24,-21 96,20-63,-25 130,37-161,3 50,1-56,-2 0,-6 53,-8-24,-38 101,-6 48,51-181,-4 31,3-1,1 1,4 65,5-97,2 0,1 0,3 0,11 41,50 112,-53-144,43 85,-34-76,29 78,-41-94,1-2,3 2,-1-2,40 48,-1 5,-45-70,1 1,1-1,-1-1,3 0,-1 0,1-2,0 2,22 11,10 1,71 33,-107-54,1 0,-2 1,3-2,-3 0,3-1,16 1,-1-2,33-3,-52 2,1 0,-2-1,0-1,2 1,-2 0,-1-1,1 0,1 0,-1 0,9-8,6-6,26-27,-21 19,11-12,47-63,21-23,-86 103,-2-2,-1-2,25-42,-9 14,-23 38,-2-1,1 1,-1-1,-2 0,1-1,-2 1,-1-1,0 0,2-28,3-16,1-15,-7 45,3 0,2 0,-1 0,22-52,-16 53,-3 0,1-1,-4 0,6-49,-2 16,-7 47,4-34,-6 33,2 0,0-1,2 1,0 0,8-19,-2 10,4-27,-8 32,13-37,-13 44,-2 1,0-1,-2-1,2 1,-2-1,1-20,-5-184,1 203</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1495 1053,'2'-127,"-4"-139,0 255,0 1,0-3,-1 3,0-2,-2 2,0 0,2-1,-11-10,-13-40,19 43,-1 1,0 2,0-3,-3 4,2-1,-23-22,5 5,12 13,0 2,-1 1,-38-27,-63-34,107 71,-26-15,-3 3,1-1,-2 5,1-1,-1 4,-87-15,86 19,10 1,0 1,0 2,-57 1,80 5,0-1,1 1,-1 1,0 0,1 0,0 0,1 1,-2 0,-12 13,11-9,1 1,-1 2,1-1,-12 19,-9 12,21-30,1-1,-1 3,3-1,0 1,-2-1,-4 23,-20 93,19-61,-23 125,33-154,3 47,1-53,-2-1,-5 52,-7-23,-35 96,-5 47,46-175,-4 31,3-2,1 2,3 62,5-93,2 0,0-1,3 1,11 39,44 108,-48-138,39 81,-30-73,26 75,-38-91,2-1,2 2,0-2,35 46,0 4,-41-66,1 0,1 0,-1-2,3 1,-2-1,2-1,0 2,19 10,10 1,63 31,-96-51,1 0,-2 1,3-2,-3 0,3-1,14 1,0-2,29-3,-47 2,1 0,-1-1,-1-1,2 1,-1 0,-2-1,2 1,0-1,-1 0,9-8,5-5,23-26,-19 18,10-12,43-60,18-22,-77 99,-1-2,-2-2,23-41,-8 14,-21 37,-2-2,1 2,0-1,-3-1,1 0,-1 0,-1 0,-1 0,3-28,2-14,1-15,-6 43,3 0,1 0,-1 1,20-51,-14 51,-3 0,1-1,-3 0,4-46,-1 14,-6 46,3-33,-5 31,2 1,0-1,1 0,1 1,6-18,-1 9,4-26,-8 31,12-36,-12 42,-1 2,-1-2,-1 0,1 1,-1-2,1-18,-5-178,1 196</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1588,16 +1582,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="6"/>
+    <col min="3" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1606,15 +1600,15 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1632,14 +1626,14 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1656,22 +1650,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -1699,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="1">A3</f>
         <v>Blue</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1792,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1813,7 +1807,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="12">
@@ -1825,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1846,7 +1840,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="12">
@@ -1858,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1889,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1920,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1951,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -1972,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="12">
@@ -1984,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2005,7 +1999,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="12">
@@ -2017,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2048,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2079,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2110,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Blue</v>
@@ -2131,7 +2125,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="12">
@@ -2143,10 +2137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I21" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>1</v>
       </c>
@@ -2163,9 +2157,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2176,2955 +2170,2108 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="12.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="43" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11" style="3" customWidth="1"/>
-    <col min="9" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="12.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="43" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12" t="e">
+        <f>#REF!*C2/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" s="12" t="e">
+        <f>G2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="G3" s="12" t="e">
+        <f>#REF!*C3/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="12" t="e">
+        <f>G3+H2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="e">
+        <f>#REF!*C4/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="12" t="e">
+        <f t="shared" ref="H4:H67" si="0">G4+H3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="12" t="e">
+        <f>#REF!*C5/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="e">
+        <f>#REF!*C6/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="12" t="e">
+        <f>#REF!*C7/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C8" s="3">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="12" t="e">
+        <f>#REF!*C8/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>75</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="e">
+        <f>#REF!*C9/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="12" t="e">
+        <f>#REF!*C10/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>75</v>
+      </c>
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="12" t="e">
+        <f>#REF!*C11/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="12" t="e">
+        <f>#REF!*C12/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+      <c r="G13" s="12" t="e">
+        <f>#REF!*C13/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12" t="e">
+        <f>#REF!*C14/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="e">
+        <f>#REF!*C15/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="12" t="e">
+        <f>#REF!*C16/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
+        <v>40</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="12" t="e">
+        <f>#REF!*C17/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>200</v>
+      </c>
+      <c r="D18" s="3">
+        <v>55</v>
+      </c>
+      <c r="G18" s="12" t="e">
+        <f>#REF!*C18/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>400</v>
+      </c>
+      <c r="D19" s="3">
+        <v>70</v>
+      </c>
+      <c r="G19" s="12" t="e">
+        <f>#REF!*C19/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>400</v>
+      </c>
+      <c r="D20" s="3">
+        <v>70</v>
+      </c>
+      <c r="G20" s="12" t="e">
+        <f>#REF!*C20/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3">
+        <v>70</v>
+      </c>
+      <c r="G21" s="12" t="e">
+        <f>#REF!*C21/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3">
+        <v>55</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="12" t="e">
+        <f>#REF!*C22/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>55</v>
+      </c>
+      <c r="G23" s="12" t="e">
+        <f>#REF!*C23/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
+        <v>55</v>
+      </c>
+      <c r="G24" s="12" t="e">
+        <f>#REF!*C24/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="12" t="e">
+        <f>#REF!*C25/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3">
+        <v>70</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="12" t="e">
+        <f>#REF!*C26/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>70</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="12" t="e">
+        <f>#REF!*C27/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3">
+        <v>70</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="12" t="e">
+        <f>#REF!*C28/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>70</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="12" t="e">
+        <f>#REF!*C29/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3">
+        <v>70</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="12" t="e">
+        <f>#REF!*C30/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3">
+        <v>70</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="12" t="e">
+        <f>#REF!*C31/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3">
+        <v>70</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="12" t="e">
+        <f>#REF!*C32/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>50</v>
+      </c>
+      <c r="D33" s="3">
+        <v>70</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="12" t="e">
+        <f>#REF!*C33/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3">
+        <v>70</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="12" t="e">
+        <f>#REF!*C34/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="3">
+        <v>70</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="12" t="e">
+        <f>#REF!*C35/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3">
+        <v>70</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="12" t="e">
+        <f>#REF!*C36/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3">
+        <v>50</v>
+      </c>
+      <c r="D37" s="3">
+        <v>70</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="12" t="e">
+        <f>#REF!*C37/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3">
+        <v>50</v>
+      </c>
+      <c r="D38" s="3">
+        <v>70</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="12" t="e">
+        <f>#REF!*C38/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3">
+        <v>70</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="12" t="e">
+        <f>#REF!*C39/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3">
+        <v>50</v>
+      </c>
+      <c r="D40" s="3">
+        <v>70</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="12" t="e">
+        <f>#REF!*C40/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>60</v>
+      </c>
+      <c r="D41" s="3">
+        <v>70</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="12" t="e">
+        <f>#REF!*C41/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="5">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="12" t="e">
+        <f>#REF!*C42/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3">
+        <v>70</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="12" t="e">
+        <f>#REF!*C43/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C44" s="3">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3">
+        <v>70</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="12" t="e">
+        <f>#REF!*C44/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3">
+        <v>70</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="12" t="e">
+        <f>#REF!*C45/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3">
+        <v>70</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="G46" s="12" t="e">
+        <f>#REF!*C46/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3">
+        <v>75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>70</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="12" t="e">
+        <f>#REF!*C47/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3">
+        <v>75</v>
+      </c>
+      <c r="D48" s="3">
+        <v>70</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="12" t="e">
+        <f>#REF!*C48/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3">
+        <v>75</v>
+      </c>
+      <c r="D49" s="3">
+        <v>70</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="12" t="e">
+        <f>#REF!*C49/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="3">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3">
+        <v>60</v>
+      </c>
+      <c r="G50" s="12" t="e">
+        <f>#REF!*C50/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="5">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3">
+        <v>60</v>
+      </c>
+      <c r="G51" s="12" t="e">
+        <f>#REF!*C51/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3">
+        <v>50</v>
+      </c>
+      <c r="D52" s="3">
+        <v>55</v>
+      </c>
+      <c r="G52" s="12" t="e">
+        <f>#REF!*C52/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>55</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="12" t="e">
+        <f>#REF!*C53/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="5">
+        <v>53</v>
+      </c>
+      <c r="C54" s="3">
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>55</v>
+      </c>
+      <c r="G54" s="12" t="e">
+        <f>#REF!*C54/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="3">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>55</v>
+      </c>
+      <c r="G55" s="12" t="e">
+        <f>#REF!*C55/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H55" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="3">
+        <v>75</v>
+      </c>
+      <c r="D56" s="3">
+        <v>55</v>
+      </c>
+      <c r="G56" s="12" t="e">
+        <f>#REF!*C56/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="5">
+        <v>56</v>
+      </c>
+      <c r="C57" s="3">
+        <v>75</v>
+      </c>
+      <c r="D57" s="3">
+        <v>55</v>
+      </c>
+      <c r="G57" s="12" t="e">
+        <f>#REF!*C57/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="3">
+        <v>75</v>
+      </c>
+      <c r="D58" s="3">
+        <v>55</v>
+      </c>
+      <c r="G58" s="12" t="e">
+        <f>#REF!*C58/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="3">
+        <v>75</v>
+      </c>
+      <c r="D59" s="3">
+        <v>55</v>
+      </c>
+      <c r="G59" s="12" t="e">
+        <f>#REF!*C59/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="5">
+        <v>59</v>
+      </c>
+      <c r="C60" s="3">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3">
+        <v>55</v>
+      </c>
+      <c r="G60" s="12" t="e">
+        <f>#REF!*C60/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="3">
+        <v>75</v>
+      </c>
+      <c r="D61" s="3">
+        <v>55</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="12">
-        <f>E2*D2/100</f>
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="12">
-        <f>I2</f>
-        <v>0.25</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Red</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>40</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="12">
-        <f>I3+J2</f>
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A70" si="1">A3</f>
-        <v>Red</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" ref="J4:J67" si="2">I4+J3</f>
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="9"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="str">
+      <c r="F61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="12" t="e">
+        <f>#REF!*C61/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="3">
+        <v>75</v>
+      </c>
+      <c r="D62" s="3">
+        <v>55</v>
+      </c>
+      <c r="G62" s="12" t="e">
+        <f>#REF!*C62/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H62" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="5">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3">
+        <v>75</v>
+      </c>
+      <c r="D63" s="3">
+        <v>55</v>
+      </c>
+      <c r="G63" s="12" t="e">
+        <f>#REF!*C63/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H63" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="3">
+        <v>75</v>
+      </c>
+      <c r="D64" s="3">
+        <v>55</v>
+      </c>
+      <c r="G64" s="12" t="e">
+        <f>#REF!*C64/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H64" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="3">
+        <v>75</v>
+      </c>
+      <c r="D65" s="3">
+        <v>55</v>
+      </c>
+      <c r="G65" s="12" t="e">
+        <f>#REF!*C65/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H65" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="5">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3">
+        <v>75</v>
+      </c>
+      <c r="D66" s="3">
+        <v>55</v>
+      </c>
+      <c r="G66" s="12" t="e">
+        <f>#REF!*C66/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H66" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3">
+        <v>55</v>
+      </c>
+      <c r="G67" s="12" t="e">
+        <f>#REF!*C67/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H67" s="12" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3">
+        <v>50</v>
+      </c>
+      <c r="D68" s="3">
+        <v>55</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="12" t="e">
+        <f>#REF!*C68/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H68" s="12" t="e">
+        <f t="shared" ref="H68:H77" si="1">G68+H67</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="5">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3">
+        <v>50</v>
+      </c>
+      <c r="D69" s="3">
+        <v>55</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="12" t="e">
+        <f>#REF!*C69/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H69" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>40</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="3">
+        <v>50</v>
+      </c>
+      <c r="D70" s="3">
+        <v>55</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="12" t="e">
+        <f>#REF!*C70/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H70" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>40</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J6" s="12">
-        <f t="shared" si="2"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="3">
+        <v>50</v>
+      </c>
+      <c r="D71" s="3">
+        <v>55</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="12" t="e">
+        <f>#REF!*C71/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H71" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="5">
+        <v>71</v>
+      </c>
+      <c r="C72" s="3">
+        <v>50</v>
+      </c>
+      <c r="D72" s="3">
+        <v>55</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="12" t="e">
+        <f>#REF!*C72/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H72" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="3">
+        <v>72</v>
+      </c>
+      <c r="C73" s="3">
+        <v>50</v>
+      </c>
+      <c r="D73" s="3">
+        <v>55</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="12" t="e">
+        <f>#REF!*C73/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H73" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="3">
+        <v>73</v>
+      </c>
+      <c r="C74" s="3">
+        <v>50</v>
+      </c>
+      <c r="D74" s="3">
+        <v>55</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="12" t="e">
+        <f>#REF!*C74/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H74" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="5">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3">
+        <v>50</v>
+      </c>
+      <c r="D75" s="3">
+        <v>55</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="12" t="e">
+        <f>#REF!*C75/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H75" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="3">
         <v>75</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="str">
+      <c r="C76" s="3">
+        <v>50</v>
+      </c>
+      <c r="D76" s="3">
+        <v>55</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="12" t="e">
+        <f>#REF!*C76/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H76" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>75</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>40</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="3">
+        <v>76</v>
+      </c>
+      <c r="C77" s="3">
+        <v>50</v>
+      </c>
+      <c r="D77" s="3">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="12" t="e">
+        <f>#REF!*C77/100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H77" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>40</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>40</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="2"/>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>40</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>40</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>70</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>40</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.4</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-1.25</v>
-      </c>
-      <c r="F15" s="3">
-        <v>40</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.85000000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>60</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.25000000000000011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.25</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3">
-        <v>200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>55</v>
-      </c>
-      <c r="I18" s="12">
-        <f>E18*D18/100</f>
-        <v>-1</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="3">
-        <v>400</v>
-      </c>
-      <c r="E19" s="3">
-        <f>-100*0.241/400</f>
-        <v>-6.0249999999999998E-2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>70</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.24099999999999999</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
-        <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>70</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>70</v>
-      </c>
-      <c r="I21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>55</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="5">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>55</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>55</v>
-      </c>
-      <c r="I24" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>70</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3">
-        <v>50</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>70</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <v>50</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>70</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5">
-        <v>27</v>
-      </c>
-      <c r="D28" s="3">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>70</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="3">
-        <v>50</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>70</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="3">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>70</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="5">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <v>60</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>70</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>70</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="5">
-        <v>32</v>
-      </c>
-      <c r="D33" s="3">
-        <v>50</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>70</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3">
-        <v>50</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>70</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="3">
-        <v>50</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>70</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="5">
-        <v>35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>50</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>70</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="3">
-        <v>50</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>70</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="str">
-        <f>A34</f>
-        <v>Red</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="3">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>70</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="5">
-        <v>38</v>
-      </c>
-      <c r="D39" s="3">
-        <v>50</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>70</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="3">
-        <v>50</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>70</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3">
-        <v>60</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>70</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="5">
-        <v>41</v>
-      </c>
-      <c r="D42" s="3">
-        <v>60</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>70</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="3">
-        <v>50</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>70</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="3">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3">
-        <v>50</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>70</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="5">
-        <v>44</v>
-      </c>
-      <c r="D45" s="3">
-        <v>50</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>70</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>70</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="3">
-        <v>46</v>
-      </c>
-      <c r="D47" s="3">
-        <v>75</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>70</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="5">
-        <v>47</v>
-      </c>
-      <c r="D48" s="3">
-        <v>75</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>70</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="3">
-        <v>48</v>
-      </c>
-      <c r="D49" s="3">
-        <v>75</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>70</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="3">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3">
-        <v>50</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>60</v>
-      </c>
-      <c r="I50" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="5">
-        <v>50</v>
-      </c>
-      <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
-        <v>60</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="3">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>55</v>
-      </c>
-      <c r="I52" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="3">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>43.2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>55</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="5">
-        <v>53</v>
-      </c>
-      <c r="D54" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>55</v>
-      </c>
-      <c r="I54" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="3">
-        <v>54</v>
-      </c>
-      <c r="D55" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>55</v>
-      </c>
-      <c r="I55" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="3">
-        <v>55</v>
-      </c>
-      <c r="D56" s="3">
-        <v>75</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="3">
-        <v>55</v>
-      </c>
-      <c r="I56" s="12">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J56" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.8660000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="5">
-        <v>56</v>
-      </c>
-      <c r="D57" s="3">
-        <v>75</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>55</v>
-      </c>
-      <c r="I57" s="12">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J57" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.4910000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="3">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3">
-        <v>75</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>55</v>
-      </c>
-      <c r="I58" s="12">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J58" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.1160000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="3">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3">
-        <v>75</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>55</v>
-      </c>
-      <c r="I59" s="12">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J59" s="12">
-        <f t="shared" si="2"/>
-        <v>0.6339999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="5">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3">
-        <v>75</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>55</v>
-      </c>
-      <c r="I60" s="12">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J60" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="3">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <v>75</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>55</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0089999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62" s="3">
-        <v>61</v>
-      </c>
-      <c r="D62" s="3">
-        <v>75</v>
-      </c>
-      <c r="E62" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>55</v>
-      </c>
-      <c r="I62" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J62" s="12">
-        <f t="shared" si="2"/>
-        <v>0.6339999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="5">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3">
-        <v>75</v>
-      </c>
-      <c r="E63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F63" s="3">
-        <v>55</v>
-      </c>
-      <c r="I63" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J63" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.1160000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="3">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3">
-        <v>75</v>
-      </c>
-      <c r="E64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>55</v>
-      </c>
-      <c r="I64" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J64" s="12">
-        <f t="shared" si="2"/>
-        <v>-0.8660000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="3">
-        <v>64</v>
-      </c>
-      <c r="D65" s="3">
-        <v>75</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="F65" s="3">
-        <v>55</v>
-      </c>
-      <c r="I65" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-      <c r="J65" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="5">
-        <v>65</v>
-      </c>
-      <c r="D66" s="3">
-        <v>75</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>55</v>
-      </c>
-      <c r="I66" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="3">
-        <v>66</v>
-      </c>
-      <c r="D67" s="3">
-        <v>75</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>55</v>
-      </c>
-      <c r="I67" s="12">
-        <f t="shared" ref="I67:I77" si="3">E67*D67/100</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="12">
-        <f t="shared" si="2"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="3">
-        <v>67</v>
-      </c>
-      <c r="D68" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>55</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="12">
-        <f t="shared" ref="J68:J77" si="4">I68+J67</f>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" s="5">
-        <v>68</v>
-      </c>
-      <c r="D69" s="3">
-        <v>50</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>55</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Red</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="3">
-        <v>69</v>
-      </c>
-      <c r="D70" s="3">
-        <v>50</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>55</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="str">
-        <f t="shared" ref="A71:A134" si="5">A70</f>
-        <v>Red</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="3">
-        <v>70</v>
-      </c>
-      <c r="D71" s="3">
-        <v>50</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>55</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="5">
-        <v>71</v>
-      </c>
-      <c r="D72" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>55</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="3">
-        <v>72</v>
-      </c>
-      <c r="D73" s="3">
-        <v>50</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>55</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="3">
-        <v>73</v>
-      </c>
-      <c r="D74" s="3">
-        <v>50</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>55</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="5">
-        <v>74</v>
-      </c>
-      <c r="D75" s="3">
-        <v>50</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>55</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="3">
-        <v>75</v>
-      </c>
-      <c r="D76" s="3">
-        <v>50</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>55</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Red</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="3">
-        <v>76</v>
-      </c>
-      <c r="D77" s="3">
-        <v>50</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <v>55</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12">
-        <f t="shared" si="4"/>
-        <v>-1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C134" s="5"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="str">
-        <f t="shared" ref="A135:A154" si="6">A134</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C135" s="5"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C137" s="5"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C138" s="5"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C139" s="5"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C140" s="5"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C141" s="5"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C144" s="5"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C145" s="5"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C146" s="5"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C147" s="5"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C148" s="5"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C149" s="5"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C151" s="5"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C153" s="5"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C154" s="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5141,22 +4288,22 @@
       <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="12.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="3"/>
+    <col min="2" max="2" width="12.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="3"/>
-    <col min="9" max="12" width="8.83203125" style="1"/>
-    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.77734375" style="3"/>
+    <col min="9" max="12" width="8.77734375" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5173,25 +4320,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5223,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -5244,10 +4391,10 @@
         <v>45</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">E3*D3/100</f>
@@ -5262,7 +4409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="2">A3</f>
         <v>Green</v>
@@ -5296,7 +4443,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5329,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5362,7 +4509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5395,7 +4542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5429,7 +4576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5462,7 +4609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5483,10 +4630,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -5501,7 +4648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5534,7 +4681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5567,7 +4714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
@@ -5588,7 +4735,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="1"/>
@@ -5603,13 +4750,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -5636,13 +4783,13 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -5669,13 +4816,13 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
@@ -5702,13 +4849,13 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -5723,10 +4870,10 @@
         <v>70</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
@@ -5741,13 +4888,13 @@
         <v>7.7142857142857153</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5774,13 +4921,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>18</v>
@@ -5807,13 +4954,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
@@ -5828,7 +4975,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="1"/>
@@ -5843,13 +4990,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5">
         <v>20</v>
@@ -5876,13 +5023,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
         <v>21</v>
@@ -5909,13 +5056,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5">
         <v>22</v>
@@ -5930,10 +5077,10 @@
         <v>70</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
@@ -5948,13 +5095,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3">
         <v>23</v>
@@ -5981,13 +5128,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3">
         <v>24</v>
@@ -6014,13 +5161,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5">
         <v>25</v>
@@ -6047,13 +5194,13 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -6080,13 +5227,13 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5">
         <v>27</v>
@@ -6113,13 +5260,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3">
         <v>28</v>
@@ -6146,13 +5293,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3">
         <v>29</v>
@@ -6167,7 +5314,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="1"/>
@@ -6182,13 +5329,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="5">
         <v>30</v>
@@ -6215,13 +5362,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>31</v>
@@ -6236,10 +5383,10 @@
         <v>30</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
@@ -6254,13 +5401,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="5">
         <v>32</v>
@@ -6287,13 +5434,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3">
         <v>33</v>
@@ -6320,13 +5467,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="3">
         <v>34</v>
@@ -6353,13 +5500,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="5">
         <v>35</v>
@@ -6386,13 +5533,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="3">
         <v>36</v>
@@ -6407,7 +5554,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="1"/>
@@ -6422,13 +5569,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3">
         <v>37</v>
@@ -6443,7 +5590,7 @@
         <v>30</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="1"/>
@@ -6458,13 +5605,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="5">
         <v>38</v>
@@ -6479,7 +5626,7 @@
         <v>30</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="1"/>
@@ -6494,13 +5641,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3">
         <v>39</v>
@@ -6515,10 +5662,10 @@
         <v>30</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
@@ -6533,13 +5680,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" s="3">
         <v>40</v>
@@ -6554,7 +5701,7 @@
         <v>30</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="1"/>
@@ -6569,13 +5716,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="5">
         <v>41</v>
@@ -6590,7 +5737,7 @@
         <v>30</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="1"/>
@@ -6605,13 +5752,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="3">
         <v>42</v>
@@ -6626,7 +5773,7 @@
         <v>30</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="1"/>
@@ -6641,13 +5788,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="3">
         <v>43</v>
@@ -6662,7 +5809,7 @@
         <v>30</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="1"/>
@@ -6677,13 +5824,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" s="5">
         <v>44</v>
@@ -6698,7 +5845,7 @@
         <v>30</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="1"/>
@@ -6713,13 +5860,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C46" s="3">
         <v>45</v>
@@ -6734,7 +5881,7 @@
         <v>30</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="1"/>
@@ -6749,13 +5896,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="3">
         <v>46</v>
@@ -6770,7 +5917,7 @@
         <v>30</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="1"/>
@@ -6785,13 +5932,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="5">
         <v>47</v>
@@ -6806,7 +5953,7 @@
         <v>30</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="1"/>
@@ -6821,13 +5968,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="3">
         <v>48</v>
@@ -6842,10 +5989,10 @@
         <v>30</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
@@ -6860,13 +6007,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="3">
         <v>49</v>
@@ -6881,7 +6028,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="1"/>
@@ -6896,13 +6043,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="5">
         <v>50</v>
@@ -6917,7 +6064,7 @@
         <v>30</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="1"/>
@@ -6932,13 +6079,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="3">
         <v>51</v>
@@ -6953,7 +6100,7 @@
         <v>30</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="1"/>
@@ -6968,13 +6115,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="3">
         <v>52</v>
@@ -6989,7 +6136,7 @@
         <v>30</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="1"/>
@@ -7004,13 +6151,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="5">
         <v>53</v>
@@ -7025,7 +6172,7 @@
         <v>30</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="1"/>
@@ -7040,13 +6187,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="3">
         <v>54</v>
@@ -7061,7 +6208,7 @@
         <v>30</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="1"/>
@@ -7076,13 +6223,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="3">
         <v>55</v>
@@ -7097,7 +6244,7 @@
         <v>30</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="1"/>
@@ -7112,13 +6259,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="5">
         <v>56</v>
@@ -7133,7 +6280,7 @@
         <v>30</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="1"/>
@@ -7148,13 +6295,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="3">
         <v>57</v>
@@ -7169,10 +6316,10 @@
         <v>30</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
@@ -7187,13 +6334,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3">
         <v>58</v>
@@ -7208,7 +6355,7 @@
         <v>30</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="1"/>
@@ -7223,13 +6370,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="5">
         <v>59</v>
@@ -7256,13 +6403,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
@@ -7289,13 +6436,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="3">
         <v>61</v>
@@ -7322,13 +6469,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5">
         <v>62</v>
@@ -7343,7 +6490,7 @@
         <v>30</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="1"/>
@@ -7358,13 +6505,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3">
         <v>63</v>
@@ -7391,13 +6538,13 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="3">
         <v>64</v>
@@ -7424,13 +6571,13 @@
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="5">
         <v>65</v>
@@ -7445,10 +6592,10 @@
         <v>70</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
@@ -7463,13 +6610,13 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="3">
         <v>66</v>
@@ -7496,13 +6643,13 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3">
         <v>67</v>
@@ -7529,13 +6676,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="5">
         <v>68</v>
@@ -7562,13 +6709,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Green</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3">
         <v>69</v>
@@ -7595,13 +6742,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="7">A70</f>
         <v>Green</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="3">
         <v>70</v>
@@ -7628,13 +6775,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" s="5">
         <v>71</v>
@@ -7661,13 +6808,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="3">
         <v>72</v>
@@ -7694,13 +6841,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" s="3">
         <v>73</v>
@@ -7715,10 +6862,10 @@
         <v>40</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
@@ -7733,13 +6880,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75" s="5">
         <v>74</v>
@@ -7766,13 +6913,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" s="3">
         <v>75</v>
@@ -7799,13 +6946,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C77" s="3">
         <v>76</v>
@@ -7820,7 +6967,7 @@
         <v>40</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I77" s="3">
         <f t="shared" si="5"/>
@@ -7835,13 +6982,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78" s="3">
         <v>77</v>
@@ -7856,10 +7003,10 @@
         <v>70</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="8">E78*D78/100</f>
@@ -7874,13 +7021,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5">
         <v>78</v>
@@ -7907,13 +7054,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="3">
         <v>79</v>
@@ -7940,13 +7087,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81" s="3">
         <v>80</v>
@@ -7973,13 +7120,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="3">
         <v>81</v>
@@ -8006,13 +7153,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="5">
         <v>82</v>
@@ -8039,13 +7186,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84" s="3">
         <v>83</v>
@@ -8072,13 +7219,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="3">
         <v>84</v>
@@ -8105,13 +7252,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="3">
         <v>85</v>
@@ -8126,7 +7273,7 @@
         <v>70</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I86" s="3">
         <f t="shared" si="8"/>
@@ -8141,13 +7288,13 @@
         <v>15.428571428571431</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87" s="5">
         <v>86</v>
@@ -8174,13 +7321,13 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="3">
         <v>87</v>
@@ -8207,13 +7354,13 @@
         <v>12.470399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="3">
         <v>88</v>
@@ -8228,10 +7375,10 @@
         <v>25</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="8"/>
@@ -8246,13 +7393,13 @@
         <v>14.399999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" s="3">
         <v>89</v>
@@ -8279,13 +7426,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C91" s="5">
         <v>90</v>
@@ -8312,13 +7459,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="3">
         <v>91</v>
@@ -8345,13 +7492,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C93" s="3">
         <v>92</v>
@@ -8378,13 +7525,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C94" s="3">
         <v>93</v>
@@ -8411,13 +7558,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95" s="5">
         <v>94</v>
@@ -8444,13 +7591,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C96" s="3">
         <v>95</v>
@@ -8477,13 +7624,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97" s="3">
         <v>96</v>
@@ -8498,10 +7645,10 @@
         <v>25</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="8"/>
@@ -8516,13 +7663,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" s="3">
         <v>97</v>
@@ -8549,13 +7696,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="5">
         <v>98</v>
@@ -8582,13 +7729,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" s="3">
         <v>99</v>
@@ -8615,13 +7762,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="3">
         <v>100</v>
@@ -8648,13 +7795,13 @@
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="3">
         <v>101</v>
@@ -8681,13 +7828,13 @@
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" s="5">
         <v>102</v>
@@ -8714,13 +7861,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C104" s="3">
         <v>103</v>
@@ -8747,13 +7894,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C105" s="3">
         <v>104</v>
@@ -8780,13 +7927,13 @@
         <v>10.285714285714286</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" s="3">
         <v>105</v>
@@ -8805,7 +7952,7 @@
         <v>STATION; DORMONT</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="8"/>
@@ -8820,13 +7967,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="5">
         <v>106</v>
@@ -8853,13 +8000,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="3">
         <v>107</v>
@@ -8886,13 +8033,13 @@
         <v>11.571428571428573</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="3">
         <v>108</v>
@@ -8919,13 +8066,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C110" s="3">
         <v>109</v>
@@ -8952,13 +8099,13 @@
         <v>12.857142857142859</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -8985,13 +8132,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -9018,13 +8165,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -9051,13 +8198,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -9084,13 +8231,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -9110,7 +8257,7 @@
         <v>STATION; GLENBURY</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="10"/>
@@ -9125,13 +8272,13 @@
         <v>19.439999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -9158,13 +8305,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -9191,13 +8338,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -9224,13 +8371,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -9257,13 +8404,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -9290,13 +8437,13 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -9323,13 +8470,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -9356,13 +8503,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -9377,7 +8524,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I123" s="3">
         <f t="shared" si="10"/>
@@ -9392,13 +8539,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -9417,7 +8564,7 @@
         <v>STATION; OVERBROOK; UNDERGROUND</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="10"/>
@@ -9432,13 +8579,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -9453,7 +8600,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I125" s="3">
         <f t="shared" si="10"/>
@@ -9468,13 +8615,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -9489,7 +8636,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I126" s="3">
         <f t="shared" si="10"/>
@@ -9504,13 +8651,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -9525,7 +8672,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I127" s="3">
         <f t="shared" si="10"/>
@@ -9540,13 +8687,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -9561,7 +8708,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I128" s="3">
         <f t="shared" si="10"/>
@@ -9576,13 +8723,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -9597,7 +8744,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="10"/>
@@ -9612,13 +8759,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -9633,7 +8780,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I130" s="3">
         <f t="shared" si="10"/>
@@ -9648,13 +8795,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -9669,7 +8816,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I131" s="3">
         <f t="shared" si="10"/>
@@ -9684,13 +8831,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -9705,7 +8852,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I132" s="3">
         <f t="shared" si="10"/>
@@ -9720,13 +8867,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -9745,7 +8892,7 @@
         <v>STATION; INGLEWOOD; UNDERGROUND</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="10"/>
@@ -9760,13 +8907,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="str">
         <f t="shared" si="7"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -9781,7 +8928,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I134" s="3">
         <f t="shared" si="10"/>
@@ -9796,13 +8943,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A151" si="13">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -9817,7 +8964,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I135" s="3">
         <f t="shared" si="10"/>
@@ -9832,13 +8979,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -9853,7 +9000,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I136" s="3">
         <f t="shared" si="10"/>
@@ -9868,13 +9015,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -9889,7 +9036,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I137" s="3">
         <f t="shared" si="10"/>
@@ -9904,13 +9051,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -9925,7 +9072,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="10"/>
@@ -9940,13 +9087,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -9961,7 +9108,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I139" s="3">
         <f t="shared" si="10"/>
@@ -9976,13 +9123,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -9997,7 +9144,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I140" s="3">
         <f t="shared" si="10"/>
@@ -10012,13 +9159,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -10033,7 +9180,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I141" s="3">
         <f t="shared" si="10"/>
@@ -10048,13 +9195,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -10073,7 +9220,7 @@
         <v>STATION; CENTRAL; UNDERDROUND</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="10"/>
@@ -10088,13 +9235,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -10109,7 +9256,7 @@
         <v>20</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I143" s="3">
         <f t="shared" si="10"/>
@@ -10124,13 +9271,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -10145,7 +9292,7 @@
         <v>20</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I144" s="3">
         <f t="shared" si="10"/>
@@ -10160,13 +9307,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -10193,13 +9340,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -10226,13 +9373,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -10259,13 +9406,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -10292,13 +9439,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -10326,13 +9473,13 @@
         <v>33.119999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -10359,13 +9506,13 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="str">
         <f t="shared" si="13"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -10392,13 +9539,13 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K153" s="1">
         <f>MIN(K2:K151)</f>
         <v>4.8461538461538467</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K154" s="1">
         <f>K153/1.2</f>
         <v>4.0384615384615392</v>
@@ -10417,48 +9564,48 @@
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="19" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="11:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K20" s="10"/>
     </row>
   </sheetData>
@@ -10479,7 +9626,7 @@
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10492,7 +9639,7 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
